--- a/document.xlsx
+++ b/document.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\entrance-exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet6" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet6!$A$1:$L$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$53</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -324,97 +324,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,7 +795,7 @@
   <dimension ref="A2:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,467 +817,467 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="14">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16" t="s">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="33">
+        <v>0</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="17">
-        <v>0</v>
-      </c>
-      <c r="K8" s="13"/>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="14">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="13"/>
+      <c r="B9" s="33">
+        <v>0</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="14">
-        <v>0</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="19" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="33">
+        <v>0</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="14">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="33">
+        <v>0</v>
+      </c>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="14">
-        <v>0</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="19" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="33">
+        <v>0</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="14">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="33">
+        <v>0</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="14">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="13"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="33">
+        <v>0</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="33">
+        <v>0</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="20">
-        <v>0</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="19" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="14">
-        <v>0</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="33">
+        <v>0</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="19" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="14">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="33">
+        <v>0</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="19" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="21" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="13"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="25" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="26" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="13"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="26" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="13"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="26" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="13"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="7"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="38" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="29"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="15"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="22" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="13"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="24" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="25" t="s">
+      <c r="I32" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
+      <c r="A33" s="15"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="29" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
       <c r="G34" s="27" t="s">
         <v>43</v>
       </c>
@@ -1285,77 +1285,77 @@
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
-      <c r="L34" s="28"/>
+      <c r="L34" s="14"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="18" t="s">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="38" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="5"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="22" t="s">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="29"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="15"/>
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
@@ -1363,316 +1363,294 @@
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
-        <v>0</v>
-      </c>
-      <c r="B43" s="24" t="s">
+      <c r="A43" s="10">
+        <v>0</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="17">
-        <v>0</v>
-      </c>
-      <c r="E43" s="24" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
-        <v>0</v>
-      </c>
-      <c r="B44" s="26" t="s">
+      <c r="A44" s="10">
+        <v>0</v>
+      </c>
+      <c r="B44" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="17">
-        <v>0</v>
-      </c>
-      <c r="E44" s="26" t="s">
+      <c r="C44" s="28"/>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
+      <c r="E44" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="26"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="17">
-        <v>0</v>
-      </c>
-      <c r="B45" s="32" t="s">
+      <c r="A45" s="10">
+        <v>0</v>
+      </c>
+      <c r="B45" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="34" t="s">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="34"/>
-      <c r="F46" s="17">
-        <v>0</v>
-      </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="10">
+        <v>0</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="J47" s="13"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="13"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="22" t="s">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="13"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="E58" s="7"/>
+      <c r="A58" s="5"/>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="E59" s="7"/>
+      <c r="A59" s="5"/>
+      <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
+      <c r="A60" s="5"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="9"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="6"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F24:K24"/>
-    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:D21"/>
@@ -1682,6 +1660,23 @@
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F20:K20"/>
     <mergeCell ref="F21:K21"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="E16:L16"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -1692,15 +1687,20 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1719,8 +1719,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet6!H63:K63</xm:f>
-              <xm:sqref>H63</xm:sqref>
+              <xm:f>Sheet1!H46:K46</xm:f>
+              <xm:sqref>H46</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -1735,8 +1735,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet6!H46:K46</xm:f>
-              <xm:sqref>H46</xm:sqref>
+              <xm:f>Sheet1!H63:K63</xm:f>
+              <xm:sqref>H63</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
